--- a/DesignerConfigs/Datas/test/demo_group.xlsx
+++ b/DesignerConfigs/Datas/test/demo_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6EF90-6414-4214-A997-C7BE0D7A09F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B4E8E5-C5AC-4134-BD26-C0D119FAA9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="4770" windowWidth="27645" windowHeight="14835" xr2:uid="{D4A68310-A7EC-4551-9717-6BE4CC784966}"/>
+    <workbookView xWindow="31170" yWindow="2640" windowWidth="25335" windowHeight="12915" xr2:uid="{D4A68310-A7EC-4551-9717-6BE4CC784966}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,31 +27,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -123,8 +123,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,45 +436,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D214AFD4-647C-491F-885E-34A33FA57E16}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -498,99 +583,12 @@
         <v>30</v>
       </c>
       <c r="J5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-      <c r="J8">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
